--- a/src/demos/zdemo_excel24.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel24.w3mi.data.xlsx
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2">
-        <v>44533</v>
+        <v>44534</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -455,7 +455,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2">
-        <v>44533</v>
+        <v>44534</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -497,7 +497,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2">
-        <v>44533</v>
+        <v>44534</v>
       </c>
     </row>
     <row r="6" spans="1:1">

--- a/src/demos/zdemo_excel24.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel24.w3mi.data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>19000226</t>
   </si>
@@ -44,9 +44,6 @@
     <t>61</t>
   </si>
   <si>
-    <t>Current Date:</t>
-  </si>
-  <si>
     <t>Date Format set to YYYY/MM/DD</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Date as string</t>
+  </si>
+  <si>
+    <t>Date:</t>
   </si>
   <si>
     <t>Default Date Format</t>
@@ -408,12 +408,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2">
-        <v>44557</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -448,17 +448,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2">
-        <v>44557</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -493,17 +493,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2">
-        <v>44557</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -550,7 +550,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
